--- a/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_45.xlsx
+++ b/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_45.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Selected Financial Information</t>
   </si>
@@ -1187,11 +1187,11 @@
         <v>1305498328.7699957</v>
       </c>
       <c r="G12" s="1">
-        <v>319819483.19999999</v>
+        <v>1240524717.0500007</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="1">
-        <v>4188377156.3100057</v>
+        <v>4188377156</v>
       </c>
       <c r="J12" s="1">
         <v>3588029419.4499989</v>
@@ -1223,11 +1223,11 @@
         <v>325268233.58999997</v>
       </c>
       <c r="G13" s="1">
-        <v>34063116.799999997</v>
+        <v>319819483.18000001</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="1">
-        <v>1012006300.0300001</v>
+        <v>1012006300</v>
       </c>
       <c r="J13" s="1">
         <v>956934340.6400001</v>
@@ -1259,11 +1259,11 @@
         <v>44875817.619999997</v>
       </c>
       <c r="G14" s="1">
-        <v>4000000</v>
+        <v>34063116.800000042</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="1">
-        <v>-44319159.290000051</v>
+        <v>-44319159.289999999</v>
       </c>
       <c r="J14" s="1">
         <v>146268235.09</v>
@@ -1295,7 +1295,7 @@
         <v>35000000</v>
       </c>
       <c r="G15" s="1">
-        <v>-60834434.380000003</v>
+        <v>40000000</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="1">
@@ -1331,11 +1331,11 @@
         <v>-53616441.74000001</v>
       </c>
       <c r="G16" s="1">
-        <v>1380267326</v>
+        <v>-60834434.380000003</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="1">
-        <v>-162861893.56999999</v>
+        <v>-162861893.59999999</v>
       </c>
       <c r="J16" s="1">
         <v>-193292161.31999999</v>
@@ -1407,12 +1407,13 @@
         <v>1451068426.2899954</v>
       </c>
       <c r="G18" s="1">
-        <v>-379300000</v>
+        <f>SUM(G12:G17)</f>
+        <v>1370267325.9700005</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="1">
         <f>SUM(I12:I17)</f>
-        <v>4409920415.0200062</v>
+        <v>4409920414.6499996</v>
       </c>
       <c r="J18" s="1">
         <f>SUM(J12:J17)</f>
@@ -1445,11 +1446,11 @@
         <v>-412700000</v>
       </c>
       <c r="G19" s="1">
-        <v>990967326</v>
+        <v>-379300000.00000012</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="1">
-        <v>-1160500000.0000002</v>
+        <v>-1160500000</v>
       </c>
       <c r="J19" s="1">
         <v>-1105900000</v>
@@ -1521,12 +1522,13 @@
         <v>1038368426.2899954</v>
       </c>
       <c r="G21" s="33">
-        <v>-20015625</v>
+        <f>SUM(G18:G20)</f>
+        <v>990967325.97000039</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="33">
         <f>SUM(I18:I20)</f>
-        <v>3283450394.5500064</v>
+        <v>3283450394.1799998</v>
       </c>
       <c r="J21" s="33">
         <f>SUM(J18:J20)</f>
@@ -1559,7 +1561,7 @@
         <v>-20015625</v>
       </c>
       <c r="G22" s="32">
-        <v>1029174575</v>
+        <v>-20015625</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="32">
@@ -1600,12 +1602,12 @@
       </c>
       <c r="G23" s="33">
         <f>SUM(G21:G22)</f>
-        <v>1009158950</v>
+        <v>970951700.97000039</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="33">
         <f>SUM(I21:I22)</f>
-        <v>3197857649.5500064</v>
+        <v>3197857649.1799998</v>
       </c>
       <c r="J23" s="33">
         <f>SUM(J21:J22)</f>
@@ -1646,14 +1648,14 @@
         <f>F23/F26</f>
         <v>0.9918665374628679</v>
       </c>
-      <c r="G25" s="5" t="e">
+      <c r="G25" s="5">
         <f>G23/G26</f>
-        <v>#VALUE!</v>
+        <v>0.94342760154224004</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5">
         <f>I23/I26</f>
-        <v>3.1641313037504433</v>
+        <v>0.31628577940841607</v>
       </c>
       <c r="J25" s="5">
         <f>J23/J26</f>
@@ -1683,12 +1685,12 @@
       <c r="F26" s="1">
         <v>1026703455.3810816</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>13</v>
+      <c r="G26" s="1">
+        <v>1029174575.116062</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="1">
-        <v>1010658958.9880759</v>
+        <v>10110658959</v>
       </c>
       <c r="J26" s="1">
         <v>1031977291.487725</v>
@@ -1737,15 +1739,15 @@
         <f>(F25-E25)/E25</f>
         <v>-3.0784812660727658E-2</v>
       </c>
-      <c r="G28" s="16" t="e">
+      <c r="G28" s="16">
         <f>(G25-F25)/F25</f>
-        <v>#VALUE!</v>
+        <v>-4.8836142859029819E-2</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="16">
         <f>(J25-I25)/I25</f>
-        <v>-0.13769665642678486</v>
+        <v>7.6265054591831021</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -1761,9 +1763,9 @@
       <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="5" t="e">
+      <c r="C29" s="5">
         <f>SUM(C25:G25)/5</f>
-        <v>#VALUE!</v>
+        <v>1.0199816896661902</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
@@ -1771,7 +1773,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6">
         <f>SUM(I25:J25)/2</f>
-        <v>2.9462861532395634</v>
+        <v>1.5223633910685499</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
